--- a/data/shift_result/frequency_result_data.xlsx
+++ b/data/shift_result/frequency_result_data.xlsx
@@ -1,34 +1,46 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20401"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\22965\LocalPC\Coding_Metamaterials\0424实测数据文档汇聚\data\shift_result\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5E3946B4-B482-4320-96B2-DDC9D719EE1B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23016" windowHeight="8124" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <name val="Calibri"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -47,80 +59,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -408,1536 +361,1534 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="n">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1">
         <v>2532</v>
       </c>
-      <c r="B1" t="n">
+      <c r="B1">
         <v>2778</v>
       </c>
-      <c r="C1" t="n">
+      <c r="C1">
         <v>2900</v>
       </c>
-      <c r="D1" t="n">
+      <c r="D1">
         <v>3274</v>
       </c>
-      <c r="E1" t="n">
+      <c r="E1">
         <v>3417</v>
       </c>
-      <c r="F1" t="n">
+      <c r="F1">
         <v>3627</v>
       </c>
-      <c r="G1" t="n">
+      <c r="G1">
         <v>4139</v>
       </c>
-      <c r="H1" t="n">
+      <c r="H1">
         <v>4808</v>
       </c>
-      <c r="I1" t="n">
+      <c r="I1">
         <v>5524</v>
       </c>
-      <c r="J1" t="n">
+      <c r="J1">
         <v>5731</v>
       </c>
-      <c r="K1" t="n">
+      <c r="K1">
         <v>5921</v>
       </c>
-      <c r="L1" t="n">
+      <c r="L1">
         <v>8667</v>
       </c>
-      <c r="M1" t="n">
+      <c r="M1">
         <v>8909</v>
       </c>
-      <c r="N1" t="n">
+      <c r="N1">
         <v>9389</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="n">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2">
         <v>2545</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B2">
         <v>2912</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2">
         <v>3027</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2">
         <v>3459</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2">
         <v>3648</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F2">
         <v>4582</v>
       </c>
-      <c r="G2" t="n">
+      <c r="G2">
         <v>5524</v>
       </c>
-      <c r="H2" t="n">
+      <c r="H2">
         <v>5731</v>
       </c>
-      <c r="I2" t="n">
+      <c r="I2">
         <v>8672</v>
       </c>
-      <c r="J2" t="n">
+      <c r="J2">
         <v>8908</v>
       </c>
-      <c r="K2" t="n">
+      <c r="K2">
         <v>9387</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="n">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3">
         <v>2767</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3">
         <v>2991</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>3283</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3">
         <v>3447</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3">
         <v>3633</v>
       </c>
-      <c r="F3" t="n">
+      <c r="F3">
         <v>3788</v>
       </c>
-      <c r="G3" t="n">
+      <c r="G3">
         <v>4375</v>
       </c>
-      <c r="H3" t="n">
+      <c r="H3">
         <v>5016</v>
       </c>
-      <c r="I3" t="n">
+      <c r="I3">
         <v>5270</v>
       </c>
-      <c r="J3" t="n">
+      <c r="J3">
         <v>5537</v>
       </c>
-      <c r="K3" t="n">
+      <c r="K3">
         <v>5727</v>
       </c>
-      <c r="L3" t="n">
+      <c r="L3">
         <v>5916</v>
       </c>
-      <c r="M3" t="n">
+      <c r="M3">
         <v>8889</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="n">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4">
         <v>2944</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4">
         <v>3101</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4">
         <v>3299</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4">
         <v>3437</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4">
         <v>3813</v>
       </c>
-      <c r="F4" t="n">
+      <c r="F4">
         <v>4365</v>
       </c>
-      <c r="G4" t="n">
+      <c r="G4">
         <v>5270</v>
       </c>
-      <c r="H4" t="n">
+      <c r="H4">
         <v>5526</v>
       </c>
-      <c r="I4" t="n">
+      <c r="I4">
         <v>5729</v>
       </c>
-      <c r="J4" t="n">
+      <c r="J4">
         <v>5923</v>
       </c>
-      <c r="K4" t="n">
+      <c r="K4">
         <v>8690</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="n">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5">
         <v>2547</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5">
         <v>2687</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5">
         <v>2981</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D5">
         <v>3295</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E5">
         <v>3484</v>
       </c>
-      <c r="F5" t="n">
+      <c r="F5">
         <v>3668</v>
       </c>
-      <c r="G5" t="n">
+      <c r="G5">
         <v>4391</v>
       </c>
-      <c r="H5" t="n">
+      <c r="H5">
         <v>5186</v>
       </c>
-      <c r="I5" t="n">
+      <c r="I5">
         <v>5771</v>
       </c>
-      <c r="J5" t="n">
+      <c r="J5">
         <v>5948</v>
       </c>
-      <c r="K5" t="n">
+      <c r="K5">
         <v>6150</v>
       </c>
-      <c r="L5" t="n">
+      <c r="L5">
         <v>8890</v>
       </c>
-      <c r="M5" t="n">
+      <c r="M5">
         <v>13047</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="n">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6">
         <v>2833</v>
       </c>
-      <c r="B6" t="n">
+      <c r="B6">
         <v>2990</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6">
         <v>3301</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D6">
         <v>3487</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E6">
         <v>3662</v>
       </c>
-      <c r="F6" t="n">
+      <c r="F6">
         <v>4374</v>
       </c>
-      <c r="G6" t="n">
+      <c r="G6">
         <v>5022</v>
       </c>
-      <c r="H6" t="n">
+      <c r="H6">
         <v>5762</v>
       </c>
-      <c r="I6" t="n">
+      <c r="I6">
         <v>8670</v>
       </c>
-      <c r="J6" t="n">
+      <c r="J6">
         <v>8898</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="n">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7">
         <v>2543</v>
       </c>
-      <c r="B7" t="n">
+      <c r="B7">
         <v>2828</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7">
         <v>2992</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D7">
         <v>3668</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E7">
         <v>4375</v>
       </c>
-      <c r="F7" t="n">
+      <c r="F7">
         <v>5224</v>
       </c>
-      <c r="G7" t="n">
+      <c r="G7">
         <v>5567</v>
       </c>
-      <c r="H7" t="n">
+      <c r="H7">
         <v>5764</v>
       </c>
-      <c r="I7" t="n">
+      <c r="I7">
         <v>5935</v>
       </c>
-      <c r="J7" t="n">
+      <c r="J7">
         <v>8886</v>
       </c>
-      <c r="K7" t="n">
+      <c r="K7">
         <v>13050</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="n">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8">
         <v>2630</v>
       </c>
-      <c r="B8" t="n">
+      <c r="B8">
         <v>2760</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8">
         <v>2800</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D8">
         <v>3716</v>
       </c>
-      <c r="E8" t="n">
+      <c r="E8">
         <v>5601</v>
       </c>
-      <c r="F8" t="n">
+      <c r="F8">
         <v>5788</v>
       </c>
-      <c r="G8" t="n">
+      <c r="G8">
         <v>5959</v>
       </c>
-      <c r="H8" t="n">
+      <c r="H8">
         <v>8671</v>
       </c>
-      <c r="I8" t="n">
+      <c r="I8">
         <v>8891</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="n">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9">
         <v>2513</v>
       </c>
-      <c r="B9" t="n">
+      <c r="B9">
         <v>2849</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C9">
         <v>3449</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D9">
         <v>3621</v>
       </c>
-      <c r="E9" t="n">
+      <c r="E9">
         <v>4365</v>
       </c>
-      <c r="F9" t="n">
+      <c r="F9">
         <v>5249</v>
       </c>
-      <c r="G9" t="n">
+      <c r="G9">
         <v>5545</v>
       </c>
-      <c r="H9" t="n">
+      <c r="H9">
         <v>5736</v>
       </c>
-      <c r="I9" t="n">
+      <c r="I9">
         <v>5927</v>
       </c>
-      <c r="J9" t="n">
+      <c r="J9">
         <v>8871</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="n">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10">
         <v>2554</v>
       </c>
-      <c r="B10" t="n">
+      <c r="B10">
         <v>2817</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C10">
         <v>2822</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D10">
         <v>3468</v>
       </c>
-      <c r="E10" t="n">
+      <c r="E10">
         <v>3625</v>
       </c>
-      <c r="F10" t="n">
+      <c r="F10">
         <v>3812</v>
       </c>
-      <c r="G10" t="n">
+      <c r="G10">
         <v>4376</v>
       </c>
-      <c r="H10" t="n">
+      <c r="H10">
         <v>5583</v>
       </c>
-      <c r="I10" t="n">
+      <c r="I10">
         <v>5785</v>
       </c>
-      <c r="J10" t="n">
+      <c r="J10">
         <v>5959</v>
       </c>
-      <c r="K10" t="n">
+      <c r="K10">
         <v>8871</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="n">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11">
         <v>2661</v>
       </c>
-      <c r="B11" t="n">
+      <c r="B11">
         <v>2885</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C11">
         <v>3335</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D11">
         <v>3496</v>
       </c>
-      <c r="E11" t="n">
+      <c r="E11">
         <v>3578</v>
       </c>
-      <c r="F11" t="n">
+      <c r="F11">
         <v>3806</v>
       </c>
-      <c r="G11" t="n">
+      <c r="G11">
         <v>4590</v>
       </c>
-      <c r="H11" t="n">
+      <c r="H11">
         <v>5168</v>
       </c>
-      <c r="I11" t="n">
+      <c r="I11">
         <v>5595</v>
       </c>
-      <c r="J11" t="n">
+      <c r="J11">
         <v>5761</v>
       </c>
-      <c r="K11" t="n">
+      <c r="K11">
         <v>5933</v>
       </c>
-      <c r="L11" t="n">
+      <c r="L11">
         <v>6318</v>
       </c>
-      <c r="M11" t="n">
+      <c r="M11">
         <v>8661</v>
       </c>
-      <c r="N11" t="n">
+      <c r="N11">
         <v>8871</v>
       </c>
-      <c r="O11" t="n">
+      <c r="O11">
         <v>9128</v>
       </c>
-      <c r="P11" t="n">
+      <c r="P11">
         <v>13614</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="n">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12">
         <v>2522</v>
       </c>
-      <c r="B12" t="n">
+      <c r="B12">
         <v>2885</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C12">
         <v>2990</v>
       </c>
-      <c r="D12" t="n">
+      <c r="D12">
         <v>3278</v>
       </c>
-      <c r="E12" t="n">
+      <c r="E12">
         <v>3415</v>
       </c>
-      <c r="F12" t="n">
+      <c r="F12">
         <v>3606</v>
       </c>
-      <c r="G12" t="n">
+      <c r="G12">
         <v>4357</v>
       </c>
-      <c r="H12" t="n">
+      <c r="H12">
         <v>4806</v>
       </c>
-      <c r="I12" t="n">
+      <c r="I12">
         <v>5567</v>
       </c>
-      <c r="J12" t="n">
+      <c r="J12">
         <v>5768</v>
       </c>
-      <c r="K12" t="n">
+      <c r="K12">
         <v>8898</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="n">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13">
         <v>2518</v>
       </c>
-      <c r="B13" t="n">
+      <c r="B13">
         <v>2636</v>
       </c>
-      <c r="C13" t="n">
+      <c r="C13">
         <v>2989</v>
       </c>
-      <c r="D13" t="n">
+      <c r="D13">
         <v>3679</v>
       </c>
-      <c r="E13" t="n">
+      <c r="E13">
         <v>4389</v>
       </c>
-      <c r="F13" t="n">
+      <c r="F13">
         <v>5211</v>
       </c>
-      <c r="G13" t="n">
+      <c r="G13">
         <v>5581</v>
       </c>
-      <c r="H13" t="n">
+      <c r="H13">
         <v>5767</v>
       </c>
-      <c r="I13" t="n">
+      <c r="I13">
         <v>5945</v>
       </c>
-      <c r="J13" t="n">
+      <c r="J13">
         <v>6135</v>
       </c>
-      <c r="K13" t="n">
+      <c r="K13">
         <v>8875</v>
       </c>
-      <c r="L13" t="n">
+      <c r="L13">
         <v>9136</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="n">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14">
         <v>2499</v>
       </c>
-      <c r="B14" t="n">
+      <c r="B14">
         <v>2596</v>
       </c>
-      <c r="C14" t="n">
+      <c r="C14">
         <v>2798</v>
       </c>
-      <c r="D14" t="n">
+      <c r="D14">
         <v>3017</v>
       </c>
-      <c r="E14" t="n">
+      <c r="E14">
         <v>3713</v>
       </c>
-      <c r="F14" t="n">
+      <c r="F14">
         <v>4608</v>
       </c>
-      <c r="G14" t="n">
+      <c r="G14">
         <v>5219</v>
       </c>
-      <c r="H14" t="n">
+      <c r="H14">
         <v>5604</v>
       </c>
-      <c r="I14" t="n">
+      <c r="I14">
         <v>5790</v>
       </c>
-      <c r="J14" t="n">
+      <c r="J14">
         <v>5970</v>
       </c>
-      <c r="K14" t="n">
+      <c r="K14">
         <v>6154</v>
       </c>
-      <c r="L14" t="n">
+      <c r="L14">
         <v>8890</v>
       </c>
-      <c r="M14" t="n">
+      <c r="M14">
         <v>9636</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="n">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15">
         <v>2676</v>
       </c>
-      <c r="B15" t="n">
+      <c r="B15">
         <v>3690</v>
       </c>
-      <c r="C15" t="n">
+      <c r="C15">
         <v>4390</v>
       </c>
-      <c r="D15" t="n">
+      <c r="D15">
         <v>5025</v>
       </c>
-      <c r="E15" t="n">
+      <c r="E15">
         <v>5223</v>
       </c>
-      <c r="F15" t="n">
+      <c r="F15">
         <v>5594</v>
       </c>
-      <c r="G15" t="n">
+      <c r="G15">
         <v>5784</v>
       </c>
-      <c r="H15" t="n">
+      <c r="H15">
         <v>5958</v>
       </c>
-      <c r="I15" t="n">
+      <c r="I15">
         <v>6144</v>
       </c>
-      <c r="J15" t="n">
+      <c r="J15">
         <v>6317</v>
       </c>
-      <c r="K15" t="n">
+      <c r="K15">
         <v>8879</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="n">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16">
         <v>2528</v>
       </c>
-      <c r="B16" t="n">
+      <c r="B16">
         <v>2750</v>
       </c>
-      <c r="C16" t="n">
+      <c r="C16">
         <v>3498</v>
       </c>
-      <c r="D16" t="n">
+      <c r="D16">
         <v>3625</v>
       </c>
-      <c r="E16" t="n">
+      <c r="E16">
         <v>3808</v>
       </c>
-      <c r="F16" t="n">
+      <c r="F16">
         <v>4361</v>
       </c>
-      <c r="G16" t="n">
+      <c r="G16">
         <v>4805</v>
       </c>
-      <c r="H16" t="n">
+      <c r="H16">
         <v>5557</v>
       </c>
-      <c r="I16" t="n">
+      <c r="I16">
         <v>5761</v>
       </c>
-      <c r="J16" t="n">
+      <c r="J16">
         <v>5948</v>
       </c>
-      <c r="K16" t="n">
+      <c r="K16">
         <v>8892</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="n">
+    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A17">
         <v>2383</v>
       </c>
-      <c r="B17" t="n">
+      <c r="B17">
         <v>2883</v>
       </c>
-      <c r="C17" t="n">
+      <c r="C17">
         <v>3172</v>
       </c>
-      <c r="D17" t="n">
+      <c r="D17">
         <v>3659</v>
       </c>
-      <c r="E17" t="n">
+      <c r="E17">
         <v>4455</v>
       </c>
-      <c r="F17" t="n">
+      <c r="F17">
         <v>4695</v>
       </c>
-      <c r="G17" t="n">
+      <c r="G17">
         <v>5134</v>
       </c>
-      <c r="H17" t="n">
+      <c r="H17">
         <v>5340</v>
       </c>
-      <c r="I17" t="n">
+      <c r="I17">
         <v>5556</v>
       </c>
-      <c r="J17" t="n">
+      <c r="J17">
         <v>5795</v>
       </c>
-      <c r="K17" t="n">
+      <c r="K17">
         <v>6031</v>
       </c>
-      <c r="L17" t="n">
+      <c r="L17">
         <v>6255</v>
       </c>
-      <c r="M17" t="n">
+      <c r="M17">
         <v>6476</v>
       </c>
-      <c r="N17" t="n">
+      <c r="N17">
         <v>6681</v>
       </c>
-      <c r="O17" t="n">
+      <c r="O17">
         <v>6910</v>
       </c>
-      <c r="P17" t="n">
+      <c r="P17">
         <v>8283</v>
       </c>
-      <c r="Q17" t="n">
+      <c r="Q17">
         <v>8728</v>
       </c>
-      <c r="R17" t="n">
+      <c r="R17">
         <v>9484</v>
       </c>
-      <c r="S17" t="n">
+      <c r="S17">
         <v>9707</v>
       </c>
-      <c r="T17" t="n">
+      <c r="T17">
         <v>9929</v>
       </c>
-      <c r="U17" t="n">
+      <c r="U17">
         <v>12274</v>
       </c>
-      <c r="V17" t="n">
+      <c r="V17">
         <v>12499</v>
       </c>
-      <c r="W17" t="n">
+      <c r="W17">
         <v>12745</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="n">
+    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A18">
         <v>2609</v>
       </c>
-      <c r="B18" t="n">
+      <c r="B18">
         <v>2847</v>
       </c>
-      <c r="C18" t="n">
+      <c r="C18">
         <v>3169</v>
       </c>
-      <c r="D18" t="n">
+      <c r="D18">
         <v>3430</v>
       </c>
-      <c r="E18" t="n">
+      <c r="E18">
         <v>3670</v>
       </c>
-      <c r="F18" t="n">
+      <c r="F18">
         <v>4450</v>
       </c>
-      <c r="G18" t="n">
+      <c r="G18">
         <v>5130</v>
       </c>
-      <c r="H18" t="n">
+      <c r="H18">
         <v>5331</v>
       </c>
-      <c r="I18" t="n">
+      <c r="I18">
         <v>5541</v>
       </c>
-      <c r="J18" t="n">
+      <c r="J18">
         <v>5788</v>
       </c>
-      <c r="K18" t="n">
+      <c r="K18">
         <v>6024</v>
       </c>
-      <c r="L18" t="n">
+      <c r="L18">
         <v>6255</v>
       </c>
-      <c r="M18" t="n">
+      <c r="M18">
         <v>6473</v>
       </c>
-      <c r="N18" t="n">
+      <c r="N18">
         <v>6683</v>
       </c>
-      <c r="O18" t="n">
+      <c r="O18">
         <v>6911</v>
       </c>
-      <c r="P18" t="n">
+      <c r="P18">
         <v>8115</v>
       </c>
-      <c r="Q18" t="n">
+      <c r="Q18">
         <v>8284</v>
       </c>
-      <c r="R18" t="n">
+      <c r="R18">
         <v>8492</v>
       </c>
-      <c r="S18" t="n">
+      <c r="S18">
         <v>8727</v>
       </c>
-      <c r="T18" t="n">
+      <c r="T18">
         <v>9481</v>
       </c>
-      <c r="U18" t="n">
+      <c r="U18">
         <v>9707</v>
       </c>
-      <c r="V18" t="n">
+      <c r="V18">
         <v>9925</v>
       </c>
-      <c r="W18" t="n">
+      <c r="W18">
         <v>12053</v>
       </c>
-      <c r="X18" t="n">
+      <c r="X18">
         <v>12275</v>
       </c>
-      <c r="Y18" t="n">
+      <c r="Y18">
         <v>12501</v>
       </c>
-      <c r="Z18" t="n">
+      <c r="Z18">
         <v>12762</v>
       </c>
-      <c r="AA18" t="n">
+      <c r="AA18">
         <v>13016</v>
       </c>
-      <c r="AB18" t="n">
+      <c r="AB18">
         <v>13265</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="n">
+    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A19">
         <v>2383</v>
       </c>
-      <c r="B19" t="n">
+      <c r="B19">
         <v>2999</v>
       </c>
-      <c r="C19" t="n">
+      <c r="C19">
         <v>3178</v>
       </c>
-      <c r="D19" t="n">
+      <c r="D19">
         <v>3425</v>
       </c>
-      <c r="E19" t="n">
+      <c r="E19">
         <v>3680</v>
       </c>
-      <c r="F19" t="n">
+      <c r="F19">
         <v>4469</v>
       </c>
-      <c r="G19" t="n">
+      <c r="G19">
         <v>5129</v>
       </c>
-      <c r="H19" t="n">
+      <c r="H19">
         <v>5352</v>
       </c>
-      <c r="I19" t="n">
+      <c r="I19">
         <v>5557</v>
       </c>
-      <c r="J19" t="n">
+      <c r="J19">
         <v>5795</v>
       </c>
-      <c r="K19" t="n">
+      <c r="K19">
         <v>6029</v>
       </c>
-      <c r="L19" t="n">
+      <c r="L19">
         <v>6263</v>
       </c>
-      <c r="M19" t="n">
+      <c r="M19">
         <v>6480</v>
       </c>
-      <c r="N19" t="n">
+      <c r="N19">
         <v>6690</v>
       </c>
-      <c r="O19" t="n">
+      <c r="O19">
         <v>6914</v>
       </c>
-      <c r="P19" t="n">
+      <c r="P19">
         <v>8281</v>
       </c>
-      <c r="Q19" t="n">
+      <c r="Q19">
         <v>8481</v>
       </c>
-      <c r="R19" t="n">
+      <c r="R19">
         <v>8715</v>
       </c>
-      <c r="S19" t="n">
+      <c r="S19">
         <v>9243</v>
       </c>
-      <c r="T19" t="n">
+      <c r="T19">
         <v>9483</v>
       </c>
-      <c r="U19" t="n">
+      <c r="U19">
         <v>9708</v>
       </c>
-      <c r="V19" t="n">
+      <c r="V19">
         <v>9920</v>
       </c>
-      <c r="W19" t="n">
+      <c r="W19">
         <v>12266</v>
       </c>
-      <c r="X19" t="n">
+      <c r="X19">
         <v>12502</v>
       </c>
-      <c r="Y19" t="n">
+      <c r="Y19">
         <v>12745</v>
       </c>
-      <c r="Z19" t="n">
+      <c r="Z19">
         <v>13016</v>
       </c>
-      <c r="AA19" t="n">
+      <c r="AA19">
         <v>13257</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="n">
+    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A20">
         <v>2877</v>
       </c>
-      <c r="B20" t="n">
+      <c r="B20">
         <v>3676</v>
       </c>
-      <c r="C20" t="n">
+      <c r="C20">
         <v>4445</v>
       </c>
-      <c r="D20" t="n">
+      <c r="D20">
         <v>5124</v>
       </c>
-      <c r="E20" t="n">
+      <c r="E20">
         <v>5336</v>
       </c>
-      <c r="F20" t="n">
+      <c r="F20">
         <v>5545</v>
       </c>
-      <c r="G20" t="n">
+      <c r="G20">
         <v>5792</v>
       </c>
-      <c r="H20" t="n">
+      <c r="H20">
         <v>6022</v>
       </c>
-      <c r="I20" t="n">
+      <c r="I20">
         <v>6251</v>
       </c>
-      <c r="J20" t="n">
+      <c r="J20">
         <v>6471</v>
       </c>
-      <c r="K20" t="n">
+      <c r="K20">
         <v>6685</v>
       </c>
-      <c r="L20" t="n">
+      <c r="L20">
         <v>6907</v>
       </c>
-      <c r="M20" t="n">
+      <c r="M20">
         <v>8277</v>
       </c>
-      <c r="N20" t="n">
+      <c r="N20">
         <v>8479</v>
       </c>
-      <c r="O20" t="n">
+      <c r="O20">
         <v>8713</v>
       </c>
-      <c r="P20" t="n">
+      <c r="P20">
         <v>9476</v>
       </c>
-      <c r="Q20" t="n">
+      <c r="Q20">
         <v>9706</v>
       </c>
-      <c r="R20" t="n">
+      <c r="R20">
         <v>9917</v>
       </c>
-      <c r="S20" t="n">
+      <c r="S20">
         <v>12038</v>
       </c>
-      <c r="T20" t="n">
+      <c r="T20">
         <v>12275</v>
       </c>
-      <c r="U20" t="n">
+      <c r="U20">
         <v>12507</v>
       </c>
-      <c r="V20" t="n">
+      <c r="V20">
         <v>12747</v>
       </c>
-      <c r="W20" t="n">
+      <c r="W20">
         <v>13018</v>
       </c>
-      <c r="X20" t="n">
+      <c r="X20">
         <v>13268</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="n">
+    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A21">
         <v>2915</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B21">
         <v>3251</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C21">
         <v>3276</v>
       </c>
-      <c r="D21" t="n">
+      <c r="D21">
         <v>3430</v>
       </c>
-      <c r="E21" t="n">
+      <c r="E21">
         <v>3444</v>
       </c>
-      <c r="F21" t="n">
+      <c r="F21">
         <v>3743</v>
       </c>
-      <c r="G21" t="n">
+      <c r="G21">
         <v>4595</v>
       </c>
-      <c r="H21" t="n">
+      <c r="H21">
         <v>5186</v>
       </c>
-      <c r="I21" t="n">
+      <c r="I21">
         <v>8702</v>
       </c>
-      <c r="J21" t="n">
+      <c r="J21">
         <v>13229</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="n">
+    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A22">
         <v>2852</v>
       </c>
-      <c r="B22" t="n">
+      <c r="B22">
         <v>3190</v>
       </c>
-      <c r="C22" t="n">
+      <c r="C22">
         <v>3364</v>
       </c>
-      <c r="D22" t="n">
+      <c r="D22">
         <v>4453</v>
       </c>
-      <c r="E22" t="n">
+      <c r="E22">
         <v>5020</v>
       </c>
-      <c r="F22" t="n">
+      <c r="F22">
         <v>5758</v>
       </c>
-      <c r="G22" t="n">
+      <c r="G22">
         <v>8846</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="n">
+    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A23">
         <v>2603</v>
       </c>
-      <c r="B23" t="n">
+      <c r="B23">
         <v>3590</v>
       </c>
-      <c r="C23" t="n">
+      <c r="C23">
         <v>3993</v>
       </c>
-      <c r="D23" t="n">
+      <c r="D23">
         <v>4273</v>
       </c>
-      <c r="E23" t="n">
+      <c r="E23">
         <v>5608</v>
       </c>
-      <c r="F23" t="n">
+      <c r="F23">
         <v>5790</v>
       </c>
-      <c r="G23" t="n">
+      <c r="G23">
         <v>5953</v>
       </c>
-      <c r="H23" t="n">
+      <c r="H23">
         <v>6123</v>
       </c>
-      <c r="I23" t="n">
+      <c r="I23">
         <v>6314</v>
       </c>
-      <c r="J23" t="n">
+      <c r="J23">
         <v>9066</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="n">
+    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A24">
         <v>2725</v>
       </c>
-      <c r="B24" t="n">
+      <c r="B24">
         <v>3050</v>
       </c>
-      <c r="C24" t="n">
+      <c r="C24">
         <v>3349</v>
       </c>
-      <c r="D24" t="n">
+      <c r="D24">
         <v>3777</v>
       </c>
-      <c r="E24" t="n">
+      <c r="E24">
         <v>4397</v>
       </c>
-      <c r="F24" t="n">
+      <c r="F24">
         <v>5181</v>
       </c>
-      <c r="G24" t="n">
+      <c r="G24">
         <v>8780</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" t="n">
+    <row r="25" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A25">
         <v>2851</v>
       </c>
-      <c r="B25" t="n">
+      <c r="B25">
         <v>3189</v>
       </c>
-      <c r="C25" t="n">
+      <c r="C25">
         <v>3414</v>
       </c>
-      <c r="D25" t="n">
+      <c r="D25">
         <v>4405</v>
       </c>
-      <c r="E25" t="n">
+      <c r="E25">
         <v>5376</v>
       </c>
-      <c r="F25" t="n">
+      <c r="F25">
         <v>5768</v>
       </c>
-      <c r="G25" t="n">
+      <c r="G25">
         <v>8735</v>
       </c>
-      <c r="H25" t="n">
+      <c r="H25">
         <v>13016</v>
       </c>
-      <c r="I25" t="n">
+      <c r="I25">
         <v>13240</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" t="n">
+    <row r="26" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A26">
         <v>2718</v>
       </c>
-      <c r="B26" t="n">
+      <c r="B26">
         <v>3013</v>
       </c>
-      <c r="C26" t="n">
+      <c r="C26">
         <v>3603</v>
       </c>
-      <c r="D26" t="n">
+      <c r="D26">
         <v>3784</v>
       </c>
-      <c r="E26" t="n">
+      <c r="E26">
         <v>5204</v>
       </c>
-      <c r="F26" t="n">
+      <c r="F26">
         <v>5568</v>
       </c>
-      <c r="G26" t="n">
+      <c r="G26">
         <v>5907</v>
       </c>
-      <c r="H26" t="n">
+      <c r="H26">
         <v>8780</v>
       </c>
-      <c r="I26" t="n">
+      <c r="I26">
         <v>13241</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" t="n">
+    <row r="27" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A27">
         <v>2831</v>
       </c>
-      <c r="B27" t="n">
+      <c r="B27">
         <v>3311</v>
       </c>
-      <c r="C27" t="n">
+      <c r="C27">
         <v>3451</v>
       </c>
-      <c r="D27" t="n">
+      <c r="D27">
         <v>3507</v>
       </c>
-      <c r="E27" t="n">
+      <c r="E27">
         <v>3525</v>
       </c>
-      <c r="F27" t="n">
+      <c r="F27">
         <v>3540</v>
       </c>
-      <c r="G27" t="n">
+      <c r="G27">
         <v>3575</v>
       </c>
-      <c r="H27" t="n">
+      <c r="H27">
         <v>3744</v>
       </c>
-      <c r="I27" t="n">
+      <c r="I27">
         <v>5182</v>
       </c>
-      <c r="J27" t="n">
+      <c r="J27">
         <v>5378</v>
       </c>
-      <c r="K27" t="n">
+      <c r="K27">
         <v>5777</v>
       </c>
-      <c r="L27" t="n">
+      <c r="L27">
         <v>9054</v>
       </c>
-      <c r="M27" t="n">
+      <c r="M27">
         <v>13236</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" t="n">
+    <row r="28" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A28">
         <v>2837</v>
       </c>
-      <c r="B28" t="n">
+      <c r="B28">
         <v>3227</v>
       </c>
-      <c r="C28" t="n">
+      <c r="C28">
         <v>3479</v>
       </c>
-      <c r="D28" t="n">
+      <c r="D28">
         <v>3772</v>
       </c>
-      <c r="E28" t="n">
+      <c r="E28">
         <v>4408</v>
       </c>
-      <c r="F28" t="n">
+      <c r="F28">
         <v>5173</v>
       </c>
-      <c r="G28" t="n">
+      <c r="G28">
         <v>5756</v>
       </c>
-      <c r="H28" t="n">
+      <c r="H28">
         <v>13023</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" t="n">
+    <row r="29" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A29">
         <v>2786</v>
       </c>
-      <c r="B29" t="n">
+      <c r="B29">
         <v>2968</v>
       </c>
-      <c r="C29" t="n">
+      <c r="C29">
         <v>3186</v>
       </c>
-      <c r="D29" t="n">
+      <c r="D29">
         <v>3408</v>
       </c>
-      <c r="E29" t="n">
+      <c r="E29">
         <v>4408</v>
       </c>
-      <c r="F29" t="n">
+      <c r="F29">
         <v>5354</v>
       </c>
-      <c r="G29" t="n">
+      <c r="G29">
         <v>5560</v>
       </c>
-      <c r="H29" t="n">
+      <c r="H29">
         <v>5758</v>
       </c>
-      <c r="I29" t="n">
+      <c r="I29">
         <v>13217</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" t="n">
+    <row r="30" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A30">
         <v>2793</v>
       </c>
-      <c r="B30" t="n">
+      <c r="B30">
         <v>3577</v>
       </c>
-      <c r="C30" t="n">
+      <c r="C30">
         <v>3679</v>
       </c>
-      <c r="D30" t="n">
+      <c r="D30">
         <v>3763</v>
       </c>
-      <c r="E30" t="n">
+      <c r="E30">
         <v>4409</v>
       </c>
-      <c r="F30" t="n">
+      <c r="F30">
         <v>5181</v>
       </c>
-      <c r="G30" t="n">
+      <c r="G30">
         <v>5779</v>
       </c>
-      <c r="H30" t="n">
+      <c r="H30">
         <v>8829</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" t="n">
+    <row r="31" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A31">
         <v>2823</v>
       </c>
-      <c r="B31" t="n">
+      <c r="B31">
         <v>2977</v>
       </c>
-      <c r="C31" t="n">
+      <c r="C31">
         <v>3192</v>
       </c>
-      <c r="D31" t="n">
+      <c r="D31">
         <v>3432</v>
       </c>
-      <c r="E31" t="n">
+      <c r="E31">
         <v>4401</v>
       </c>
-      <c r="F31" t="n">
+      <c r="F31">
         <v>5181</v>
       </c>
-      <c r="G31" t="n">
+      <c r="G31">
         <v>5770</v>
       </c>
-      <c r="H31" t="n">
+      <c r="H31">
         <v>8975</v>
       </c>
-      <c r="I31" t="n">
+      <c r="I31">
         <v>13236</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" t="n">
+    <row r="32" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A32">
         <v>2847</v>
       </c>
-      <c r="B32" t="n">
+      <c r="B32">
         <v>2940</v>
       </c>
-      <c r="C32" t="n">
+      <c r="C32">
         <v>2958</v>
       </c>
-      <c r="D32" t="n">
+      <c r="D32">
         <v>3403</v>
       </c>
-      <c r="E32" t="n">
+      <c r="E32">
         <v>4261</v>
       </c>
-      <c r="F32" t="n">
+      <c r="F32">
         <v>5378</v>
       </c>
-      <c r="G32" t="n">
+      <c r="G32">
         <v>5763</v>
       </c>
-      <c r="H32" t="n">
+      <c r="H32">
         <v>8656</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" t="n">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33">
         <v>2717</v>
       </c>
-      <c r="B33" t="n">
+      <c r="B33">
         <v>2907</v>
       </c>
-      <c r="C33" t="n">
+      <c r="C33">
         <v>3306</v>
       </c>
-      <c r="D33" t="n">
+      <c r="D33">
         <v>3365</v>
       </c>
-      <c r="E33" t="n">
+      <c r="E33">
         <v>3999</v>
       </c>
-      <c r="F33" t="n">
+      <c r="F33">
         <v>5006</v>
       </c>
-      <c r="G33" t="n">
+      <c r="G33">
         <v>5406</v>
       </c>
-      <c r="H33" t="n">
+      <c r="H33">
         <v>5788</v>
       </c>
-      <c r="I33" t="n">
+      <c r="I33">
         <v>8946</v>
       </c>
-      <c r="J33" t="n">
+      <c r="J33">
         <v>13451</v>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" t="n">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34">
         <v>2884</v>
       </c>
-      <c r="B34" t="n">
+      <c r="B34">
         <v>3474</v>
       </c>
-      <c r="C34" t="n">
+      <c r="C34">
         <v>4348</v>
       </c>
-      <c r="D34" t="n">
+      <c r="D34">
         <v>5006</v>
       </c>
-      <c r="E34" t="n">
+      <c r="E34">
         <v>5757</v>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" t="n">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35">
         <v>2917</v>
       </c>
-      <c r="B35" t="n">
+      <c r="B35">
         <v>3020</v>
       </c>
-      <c r="C35" t="n">
+      <c r="C35">
         <v>3295</v>
       </c>
-      <c r="D35" t="n">
+      <c r="D35">
         <v>4000</v>
       </c>
-      <c r="E35" t="n">
+      <c r="E35">
         <v>5361</v>
       </c>
-      <c r="F35" t="n">
+      <c r="F35">
         <v>5910</v>
       </c>
-      <c r="G35" t="n">
+      <c r="G35">
         <v>8652</v>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" t="n">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36">
         <v>2822</v>
       </c>
-      <c r="B36" t="n">
+      <c r="B36">
         <v>2985</v>
       </c>
-      <c r="C36" t="n">
+      <c r="C36">
         <v>3596</v>
       </c>
-      <c r="D36" t="n">
+      <c r="D36">
         <v>3776</v>
       </c>
-      <c r="E36" t="n">
+      <c r="E36">
         <v>4405</v>
       </c>
-      <c r="F36" t="n">
+      <c r="F36">
         <v>5770</v>
       </c>
-      <c r="G36" t="n">
+      <c r="G36">
         <v>8796</v>
       </c>
-      <c r="H36" t="n">
+      <c r="H36">
         <v>13237</v>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" t="n">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37">
         <v>2888</v>
       </c>
-      <c r="B37" t="n">
+      <c r="B37">
         <v>3283</v>
       </c>
-      <c r="C37" t="n">
+      <c r="C37">
         <v>3527</v>
       </c>
-      <c r="D37" t="n">
+      <c r="D37">
         <v>3568</v>
       </c>
-      <c r="E37" t="n">
+      <c r="E37">
         <v>3775</v>
       </c>
-      <c r="F37" t="n">
+      <c r="F37">
         <v>4585</v>
       </c>
-      <c r="G37" t="n">
+      <c r="G37">
         <v>5181</v>
       </c>
-      <c r="H37" t="n">
+      <c r="H37">
         <v>8845</v>
       </c>
-      <c r="I37" t="n">
+      <c r="I37">
         <v>13022</v>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" t="n">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38">
         <v>2838</v>
       </c>
-      <c r="B38" t="n">
+      <c r="B38">
         <v>3324</v>
       </c>
-      <c r="C38" t="n">
+      <c r="C38">
         <v>3479</v>
       </c>
-      <c r="D38" t="n">
+      <c r="D38">
         <v>3772</v>
       </c>
-      <c r="E38" t="n">
+      <c r="E38">
         <v>4485</v>
       </c>
-      <c r="F38" t="n">
+      <c r="F38">
         <v>5548</v>
       </c>
-      <c r="G38" t="n">
+      <c r="G38">
         <v>8715</v>
       </c>
-      <c r="H38" t="n">
+      <c r="H38">
         <v>13023</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" t="n">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39">
         <v>2664</v>
       </c>
-      <c r="B39" t="n">
+      <c r="B39">
         <v>3595</v>
       </c>
-      <c r="C39" t="n">
+      <c r="C39">
         <v>5304</v>
       </c>
-      <c r="D39" t="n">
+      <c r="D39">
         <v>6283</v>
       </c>
-      <c r="E39" t="n">
+      <c r="E39">
         <v>8753</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" t="n">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40">
         <v>2719</v>
       </c>
-      <c r="B40" t="n">
+      <c r="B40">
         <v>3590</v>
       </c>
-      <c r="C40" t="n">
+      <c r="C40">
         <v>5795</v>
       </c>
-      <c r="D40" t="n">
+      <c r="D40">
         <v>8745</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" t="n">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A41">
         <v>2793</v>
       </c>
-      <c r="B41" t="n">
+      <c r="B41">
         <v>3490</v>
       </c>
-      <c r="C41" t="n">
+      <c r="C41">
         <v>4407</v>
       </c>
-      <c r="D41" t="n">
+      <c r="D41">
         <v>5796</v>
       </c>
-      <c r="E41" t="n">
+      <c r="E41">
         <v>8840</v>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" t="n">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A42">
         <v>2693</v>
       </c>
-      <c r="B42" t="n">
+      <c r="B42">
         <v>3602</v>
       </c>
-      <c r="C42" t="n">
+      <c r="C42">
         <v>3814</v>
       </c>
-      <c r="D42" t="n">
+      <c r="D42">
         <v>5783</v>
       </c>
-      <c r="E42" t="n">
+      <c r="E42">
         <v>8854</v>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" t="n">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A43">
         <v>2636</v>
       </c>
-      <c r="B43" t="n">
+      <c r="B43">
         <v>3612</v>
       </c>
-      <c r="C43" t="n">
+      <c r="C43">
         <v>3786</v>
       </c>
-      <c r="D43" t="n">
+      <c r="D43">
         <v>5953</v>
       </c>
-      <c r="E43" t="n">
+      <c r="E43">
         <v>6147</v>
       </c>
-      <c r="F43" t="n">
+      <c r="F43">
         <v>8849</v>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" t="n">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A44">
         <v>2826</v>
       </c>
-      <c r="B44" t="n">
+      <c r="B44">
         <v>3192</v>
       </c>
-      <c r="C44" t="n">
+      <c r="C44">
         <v>3556</v>
       </c>
-      <c r="D44" t="n">
+      <c r="D44">
         <v>4396</v>
       </c>
-      <c r="E44" t="n">
+      <c r="E44">
         <v>5005</v>
       </c>
-      <c r="F44" t="n">
+      <c r="F44">
         <v>5186</v>
       </c>
-      <c r="G44" t="n">
+      <c r="G44">
         <v>5792</v>
       </c>
-      <c r="H44" t="n">
+      <c r="H44">
         <v>8860</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>